--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId3" state="visible"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Номер телефона </t>
   </si>
@@ -41,27 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Дата заполнения</t>
-  </si>
-  <si>
-    <t>+7 (899) 999-99-89</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>2024-10-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -92,7 +77,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -108,41 +93,26 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -164,17 +134,14 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="false">
-      <alignment/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -231,12 +198,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204" pitchFamily="0"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -357,34 +324,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
-    <pageSetUpPr/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" activeCellId="0" pane="topLeft" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="18.14"/>
-    <col customWidth="true" max="2" min="2" width="18.42"/>
-    <col customWidth="true" max="3" min="3" width="18"/>
-    <col customWidth="true" max="4" min="4" width="27.85"/>
-    <col customWidth="true" max="5" min="5" width="18.28"/>
-    <col customWidth="true" max="6" min="6" width="19.42"/>
-    <col customWidth="true" max="7" min="7" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.86"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,33 +372,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions gridLinesSet="true"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>